--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="822">
   <si>
     <t>Title</t>
   </si>
@@ -2538,6 +2538,9 @@
   </si>
   <si>
     <t>2021-05-21T07:48:04Z</t>
+  </si>
+  <si>
+    <t>2021-05-27T13:04:30Z</t>
   </si>
 </sst>
 </file>
@@ -9635,7 +9638,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="27"/>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="824">
   <si>
     <t>Title</t>
   </si>
@@ -2541,6 +2541,12 @@
   </si>
   <si>
     <t>2021-05-27T13:04:30Z</t>
+  </si>
+  <si>
+    <t>BOM-77674</t>
+  </si>
+  <si>
+    <t>2021-08-13T05:33:08Z</t>
   </si>
 </sst>
 </file>
@@ -9620,7 +9626,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="28" t="s">
@@ -9638,7 +9644,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="27"/>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3C5B0-8509-4028-88AC-B75A4A8D4694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E47DB8-A769-4ACC-A1BF-D1A0A8F7EEED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="849" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="815">
   <si>
     <t>Title</t>
   </si>
@@ -2519,34 +2519,7 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>BOM-78175</t>
-  </si>
-  <si>
-    <t>2021-05-17T12:35:54Z</t>
-  </si>
-  <si>
-    <t>BOM-78595</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:42:58Z</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:45:18Z</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:47:17Z</t>
-  </si>
-  <si>
-    <t>2021-05-21T07:48:04Z</t>
-  </si>
-  <si>
-    <t>2021-05-27T13:04:30Z</t>
-  </si>
-  <si>
-    <t>BOM-77674</t>
-  </si>
-  <si>
-    <t>2021-08-13T05:33:08Z</t>
+    <t>BOM-125495</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3464,16 +3437,16 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="59.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6640625" collapsed="true"/>
-    <col min="5" max="16384" style="6" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.36328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.6328125" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>89</v>
       </c>
@@ -3490,7 +3463,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3504,7 +3477,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3518,7 +3491,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3532,7 +3505,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3546,7 +3519,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3560,7 +3533,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3574,7 +3547,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3588,7 +3561,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3602,7 +3575,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3616,7 +3589,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3630,7 +3603,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3644,7 +3617,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3658,7 +3631,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3672,7 +3645,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3689,7 +3662,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3706,7 +3679,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3723,7 +3696,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3740,7 +3713,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3757,7 +3730,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3774,7 +3747,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -3791,7 +3764,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3808,7 +3781,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3825,7 +3798,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3842,7 +3815,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3859,7 +3832,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3873,7 +3846,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3902,17 +3875,17 @@
       <selection pane="bottomLeft" activeCell="B72" sqref="B72:C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="39.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="49.6640625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="6" max="11" customWidth="true" style="3" width="9.33203125" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" width="39.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.36328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6328125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="11" width="9.36328125" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.36328125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>74</v>
       </c>
@@ -4020,7 +3993,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>746</v>
       </c>
@@ -4056,7 +4029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>750</v>
       </c>
@@ -4089,7 +4062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>79</v>
       </c>
@@ -4098,7 +4071,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>80</v>
       </c>
@@ -4134,7 +4107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>82</v>
       </c>
@@ -4206,7 +4179,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>84</v>
       </c>
@@ -4226,7 +4199,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>93</v>
       </c>
@@ -4264,7 +4237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>98</v>
       </c>
@@ -4302,7 +4275,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>1</v>
       </c>
@@ -4378,7 +4351,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>618</v>
       </c>
@@ -4416,7 +4389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>2</v>
       </c>
@@ -4436,7 +4409,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>3</v>
       </c>
@@ -4472,7 +4445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>673</v>
       </c>
@@ -4544,7 +4517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>674</v>
       </c>
@@ -4580,7 +4553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>60</v>
       </c>
@@ -4600,7 +4573,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>677</v>
       </c>
@@ -4638,7 +4611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>8</v>
       </c>
@@ -4658,7 +4631,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>678</v>
       </c>
@@ -4696,7 +4669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>679</v>
       </c>
@@ -4716,7 +4689,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>682</v>
       </c>
@@ -4754,7 +4727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>683</v>
       </c>
@@ -4774,7 +4747,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="91" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>686</v>
       </c>
@@ -4812,7 +4785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="49.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +4823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>13</v>
       </c>
@@ -4886,7 +4859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>687</v>
       </c>
@@ -4906,7 +4879,7 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>690</v>
       </c>
@@ -4926,7 +4899,7 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>693</v>
       </c>
@@ -4946,7 +4919,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>696</v>
       </c>
@@ -4966,7 +4939,7 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>699</v>
       </c>
@@ -4986,7 +4959,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
         <v>702</v>
       </c>
@@ -5006,7 +4979,7 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>57</v>
       </c>
@@ -5034,7 +5007,7 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>12</v>
       </c>
@@ -5068,7 +5041,7 @@
       </c>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>58</v>
       </c>
@@ -5090,7 +5063,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
         <v>19</v>
       </c>
@@ -5114,7 +5087,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
         <v>20</v>
       </c>
@@ -5138,7 +5111,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>55</v>
       </c>
@@ -5160,7 +5133,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>56</v>
       </c>
@@ -5184,7 +5157,7 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>21</v>
       </c>
@@ -5208,7 +5181,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="29.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="29.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
         <v>66</v>
       </c>
@@ -5230,7 +5203,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="35.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>24</v>
       </c>
@@ -5252,7 +5225,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
         <v>22</v>
       </c>
@@ -5274,7 +5247,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>23</v>
       </c>
@@ -5296,7 +5269,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>103</v>
       </c>
@@ -5320,7 +5293,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
         <v>15</v>
       </c>
@@ -5344,7 +5317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="s">
         <v>14</v>
       </c>
@@ -5380,7 +5353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
         <v>99</v>
       </c>
@@ -5416,7 +5389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="s">
         <v>16</v>
       </c>
@@ -5450,7 +5423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="s">
         <v>17</v>
       </c>
@@ -5486,7 +5459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>18</v>
       </c>
@@ -5520,7 +5493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
         <v>25</v>
       </c>
@@ -5544,7 +5517,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="s">
         <v>104</v>
       </c>
@@ -5570,7 +5543,7 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
         <v>65</v>
       </c>
@@ -5596,7 +5569,7 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="s">
         <v>110</v>
       </c>
@@ -5622,7 +5595,7 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
         <v>111</v>
       </c>
@@ -5648,7 +5621,7 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
         <v>26</v>
       </c>
@@ -5672,7 +5645,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="65" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>28</v>
       </c>
@@ -5700,7 +5673,7 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>27</v>
       </c>
@@ -5730,7 +5703,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>710</v>
       </c>
@@ -5750,7 +5723,7 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>29</v>
       </c>
@@ -5786,7 +5759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
         <v>584</v>
       </c>
@@ -5822,7 +5795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="56" t="s">
         <v>586</v>
       </c>
@@ -5856,7 +5829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
         <v>587</v>
       </c>
@@ -5892,7 +5865,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
         <v>588</v>
       </c>
@@ -5926,7 +5899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
         <v>589</v>
       </c>
@@ -5962,7 +5935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="56" t="s">
         <v>590</v>
       </c>
@@ -5996,7 +5969,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A72" s="56" t="s">
         <v>108</v>
       </c>
@@ -6018,7 +5991,7 @@
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="s">
         <v>109</v>
       </c>
@@ -6040,7 +6013,7 @@
       </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="59" t="s">
         <v>100</v>
       </c>
@@ -6062,7 +6035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="59" t="s">
         <v>101</v>
       </c>
@@ -6084,7 +6057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="s">
         <v>102</v>
       </c>
@@ -6106,7 +6079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A77" s="59" t="s">
         <v>105</v>
       </c>
@@ -6128,7 +6101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="s">
         <v>547</v>
       </c>
@@ -6150,7 +6123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="65" x14ac:dyDescent="0.25">
       <c r="A79" s="59" t="s">
         <v>548</v>
       </c>
@@ -6172,7 +6145,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="59" t="s">
         <v>549</v>
       </c>
@@ -6194,7 +6167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
         <v>106</v>
       </c>
@@ -6216,7 +6189,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
         <v>107</v>
       </c>
@@ -6238,7 +6211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A83" s="59" t="s">
         <v>550</v>
       </c>
@@ -6260,7 +6233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="s">
         <v>551</v>
       </c>
@@ -6282,7 +6255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="52" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="s">
         <v>552</v>
       </c>
@@ -6304,7 +6277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="58" t="s">
         <v>59</v>
       </c>
@@ -6324,7 +6297,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="26" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
         <v>584</v>
       </c>
@@ -6353,7 +6326,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="63" t="s">
         <v>544</v>
       </c>
@@ -6389,7 +6362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="63" t="s">
         <v>545</v>
       </c>
@@ -6407,7 +6380,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="63" t="s">
         <v>546</v>
       </c>
@@ -6423,7 +6396,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="63" t="s">
         <v>114</v>
       </c>
@@ -6459,19 +6432,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="65"/>
       <c r="C93" s="61"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="66" t="s">
         <v>86</v>
       </c>
       <c r="B94" s="65"/>
       <c r="C94" s="61"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
         <v>18</v>
       </c>
@@ -6482,7 +6455,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="15" t="s">
         <v>38</v>
@@ -6491,7 +6464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="15" t="s">
         <v>41</v>
@@ -6500,7 +6473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="15" t="s">
         <v>44</v>
@@ -6509,7 +6482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="15" t="s">
         <v>46</v>
@@ -6518,7 +6491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="15" t="s">
         <v>50</v>
@@ -6527,7 +6500,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="15" t="s">
         <v>51</v>
@@ -6536,7 +6509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="15" t="s">
         <v>52</v>
@@ -6545,7 +6518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
       <c r="B103" s="15" t="s">
         <v>53</v>
@@ -6554,7 +6527,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
       <c r="B104" s="15" t="s">
         <v>112</v>
@@ -6563,7 +6536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="15" t="s">
         <v>113</v>
@@ -6572,21 +6545,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="15" t="s">
         <v>609</v>
       </c>
       <c r="C106" s="48"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
       <c r="B107" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C107" s="48"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>14</v>
       </c>
@@ -6597,7 +6570,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
       <c r="B109" s="16" t="s">
         <v>36</v>
@@ -6606,7 +6579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="16" t="s">
         <v>39</v>
@@ -6615,7 +6588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="16" t="s">
         <v>42</v>
@@ -6624,7 +6597,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="16" t="s">
         <v>45</v>
@@ -6633,7 +6606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A113" s="47"/>
       <c r="B113" s="17" t="s">
         <v>47</v>
@@ -6642,7 +6615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>114</v>
       </c>
@@ -6653,7 +6626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="18" t="s">
         <v>657</v>
@@ -6662,7 +6635,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="18" t="s">
         <v>717</v>
@@ -6671,7 +6644,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
       <c r="B117" s="18" t="s">
         <v>719</v>
@@ -6680,7 +6653,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="18" t="s">
         <v>721</v>
@@ -6689,7 +6662,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="18" t="s">
         <v>723</v>
@@ -6698,7 +6671,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="18" t="s">
         <v>725</v>
@@ -8985,7 +8958,7 @@
       </c>
       <c r="C410" s="48"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A411" s="19" t="s">
         <v>17</v>
       </c>
@@ -8994,175 +8967,175 @@
       </c>
       <c r="C411" s="48"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A412" s="19"/>
       <c r="B412" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C412" s="48"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A413" s="47"/>
       <c r="B413" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C413" s="48"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A414" s="47"/>
       <c r="B414" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C414" s="48"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A415" s="47"/>
       <c r="B415" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C415" s="48"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A416" s="47"/>
       <c r="B416" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C416" s="48"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A417" s="47"/>
       <c r="B417" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C417" s="48"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A418" s="47"/>
       <c r="B418" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C418" s="48"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A419" s="47"/>
       <c r="B419" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C419" s="48"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A420" s="47"/>
       <c r="B420" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C420" s="48"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A421" s="47"/>
       <c r="B421" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C421" s="48"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A422" s="47"/>
       <c r="B422" s="20" t="s">
         <v>530</v>
       </c>
       <c r="C422" s="48"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A423" s="47"/>
       <c r="B423" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C423" s="48"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A424" s="47"/>
       <c r="B424" s="20" t="s">
         <v>531</v>
       </c>
       <c r="C424" s="48"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A425" s="47"/>
       <c r="B425" s="20" t="s">
         <v>532</v>
       </c>
       <c r="C425" s="48"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A426" s="47"/>
       <c r="B426" s="20" t="s">
         <v>533</v>
       </c>
       <c r="C426" s="48"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A427" s="47"/>
       <c r="B427" s="20" t="s">
         <v>534</v>
       </c>
       <c r="C427" s="48"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A428" s="47"/>
       <c r="B428" s="20" t="s">
         <v>535</v>
       </c>
       <c r="C428" s="48"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A429" s="47"/>
       <c r="B429" s="20" t="s">
         <v>536</v>
       </c>
       <c r="C429" s="48"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A430" s="47"/>
       <c r="B430" s="20" t="s">
         <v>537</v>
       </c>
       <c r="C430" s="48"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A431" s="47"/>
       <c r="B431" s="20" t="s">
         <v>538</v>
       </c>
       <c r="C431" s="48"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A432" s="47"/>
       <c r="B432" s="20" t="s">
         <v>539</v>
       </c>
       <c r="C432" s="48"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A433" s="47"/>
       <c r="B433" s="20" t="s">
         <v>540</v>
       </c>
       <c r="C433" s="48"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A434" s="47"/>
       <c r="B434" s="20" t="s">
         <v>541</v>
       </c>
       <c r="C434" s="48"/>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A435" s="47"/>
       <c r="B435" s="20" t="s">
         <v>542</v>
       </c>
       <c r="C435" s="48"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A436" s="48" t="s">
         <v>16</v>
       </c>
@@ -9171,14 +9144,14 @@
       </c>
       <c r="C436" s="61"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A437" s="61"/>
       <c r="B437" s="20" t="s">
         <v>543</v>
       </c>
       <c r="C437" s="61"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A438" s="61"/>
       <c r="B438" s="20" t="s">
         <v>48</v>
@@ -9192,175 +9165,175 @@
       <c r="B439" s="61"/>
       <c r="C439" s="61"/>
     </row>
-    <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A440" s="61"/>
       <c r="B440" s="68" t="s">
         <v>728</v>
       </c>
       <c r="C440" s="61"/>
     </row>
-    <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A441" s="61"/>
       <c r="B441" s="68" t="s">
         <v>61</v>
       </c>
       <c r="C441" s="61"/>
     </row>
-    <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A442" s="61"/>
       <c r="B442" s="68" t="s">
         <v>35</v>
       </c>
       <c r="C442" s="61"/>
     </row>
-    <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A443" s="61"/>
       <c r="B443" s="68" t="s">
         <v>62</v>
       </c>
       <c r="C443" s="61"/>
     </row>
-    <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A444" s="61"/>
       <c r="B444" s="68" t="s">
         <v>33</v>
       </c>
       <c r="C444" s="61"/>
     </row>
-    <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A445" s="61"/>
       <c r="B445" s="68" t="s">
         <v>63</v>
       </c>
       <c r="C445" s="61"/>
     </row>
-    <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A446" s="61"/>
       <c r="B446" s="68" t="s">
         <v>64</v>
       </c>
       <c r="C446" s="61"/>
     </row>
-    <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A447" s="61"/>
       <c r="B447" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C447" s="61"/>
     </row>
-    <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A448" s="61"/>
       <c r="B448" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C448" s="61"/>
     </row>
-    <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A449" s="61"/>
       <c r="B449" s="69" t="s">
         <v>40</v>
       </c>
       <c r="C449" s="61"/>
     </row>
-    <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A450" s="61"/>
       <c r="B450" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C450" s="61"/>
     </row>
-    <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A451" s="61"/>
       <c r="B451" s="69" t="s">
         <v>530</v>
       </c>
       <c r="C451" s="61"/>
     </row>
-    <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A452" s="61"/>
       <c r="B452" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C452" s="61"/>
     </row>
-    <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A453" s="61"/>
       <c r="B453" s="69" t="s">
         <v>531</v>
       </c>
       <c r="C453" s="61"/>
     </row>
-    <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A454" s="61"/>
       <c r="B454" s="69" t="s">
         <v>532</v>
       </c>
       <c r="C454" s="61"/>
     </row>
-    <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A455" s="61"/>
       <c r="B455" s="69" t="s">
         <v>533</v>
       </c>
       <c r="C455" s="61"/>
     </row>
-    <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A456" s="61"/>
       <c r="B456" s="69" t="s">
         <v>534</v>
       </c>
       <c r="C456" s="61"/>
     </row>
-    <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A457" s="61"/>
       <c r="B457" s="69" t="s">
         <v>535</v>
       </c>
       <c r="C457" s="61"/>
     </row>
-    <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A458" s="61"/>
       <c r="B458" s="69" t="s">
         <v>536</v>
       </c>
       <c r="C458" s="61"/>
     </row>
-    <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A459" s="61"/>
       <c r="B459" s="69" t="s">
         <v>537</v>
       </c>
       <c r="C459" s="61"/>
     </row>
-    <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A460" s="61"/>
       <c r="B460" s="69" t="s">
         <v>538</v>
       </c>
       <c r="C460" s="61"/>
     </row>
-    <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A461" s="61"/>
       <c r="B461" s="69" t="s">
         <v>539</v>
       </c>
       <c r="C461" s="61"/>
     </row>
-    <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A462" s="61"/>
       <c r="B462" s="69" t="s">
         <v>540</v>
       </c>
       <c r="C462" s="61"/>
     </row>
-    <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A463" s="61"/>
       <c r="B463" s="69" t="s">
         <v>541</v>
       </c>
       <c r="C463" s="61"/>
     </row>
-    <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A464" s="61"/>
       <c r="B464" s="69" t="s">
         <v>542</v>
@@ -9374,7 +9347,7 @@
       <c r="B465" s="61"/>
       <c r="C465" s="61"/>
     </row>
-    <row r="466" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A466" s="61"/>
       <c r="B466" s="61" t="s">
         <v>730</v>
@@ -9441,52 +9414,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23988EC5-5F39-4334-BEA7-20D3B137B36B}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="38" max="39" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.6328125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="8.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="23.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="22.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="39" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>93</v>
       </c>
@@ -9624,9 +9597,9 @@
       </c>
       <c r="AT1" s="26"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="28" t="s">
@@ -9643,9 +9616,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
-        <v>823</v>
-      </c>
+      <c r="M2" s="27"/>
       <c r="N2" s="28"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -9726,9 +9697,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>794</v>
       </c>
@@ -9742,7 +9713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>796</v>
       </c>
@@ -9756,7 +9727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>798</v>
       </c>
@@ -9770,7 +9741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>800</v>
       </c>
@@ -9784,7 +9755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>802</v>
       </c>
@@ -9798,7 +9769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>804</v>
       </c>
@@ -9809,7 +9780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>805</v>
       </c>
@@ -9817,7 +9788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>806</v>
       </c>
@@ -9825,7 +9796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>807</v>
       </c>
@@ -9833,7 +9804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>808</v>
       </c>
@@ -9841,7 +9812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>809</v>
       </c>
@@ -9849,7 +9820,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>810</v>
       </c>
@@ -9857,7 +9828,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>811</v>
       </c>
@@ -9865,62 +9836,62 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
         <v>31</v>
       </c>
@@ -9932,21 +9903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -10125,10 +10081,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10151,20 +10133,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Impediment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="817">
   <si>
     <t>Title</t>
   </si>
@@ -2520,6 +2520,12 @@
   </si>
   <si>
     <t>BOM-125495</t>
+  </si>
+  <si>
+    <t>BOM-34822</t>
+  </si>
+  <si>
+    <t>BOM-80819</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3439,11 +3445,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.6328125" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6328125" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3877,12 +3883,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.36328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.6328125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="11" width="9.36328125" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.36328125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6328125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.36328125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9420,43 +9426,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.6328125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="8.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="22.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="39" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.6328125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="26.36328125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="23.453125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6328125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="22.6328125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.6328125" collapsed="true"/>
+    <col min="38" max="39" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
@@ -9599,7 +9605,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="28" t="s">
